--- a/valores_celulares_importados.xlsx
+++ b/valores_celulares_importados.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,6 +577,582 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Phone Plus Ultra 2011</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>444.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Phone Plus Ultra 2012</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>355.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Phone Plus Ultra 2013</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>355.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Phone Plus Ultra 2014</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>436.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Phone Plus Ultra 2015</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>234.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Phone Plus Ultra 2016</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>675.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Phone Plus Ultra 2017</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>234.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Phone Plus Ultra 2018</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>234.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Phone Plus Ultra 2019</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>547.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Phone Plus Ultra 2020</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>325.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Phone Plus Ultra 2021</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>234.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Phone Plus Ultra 2022</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>346.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Phone Premium Plus 2001</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Phone Premium Plus 2002</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>234.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Phone Premium Plus 200</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>345.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Phone Premium Plus 2004</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>235.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Phone Premium Plus 2005</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>235.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Phone Premium Plus 2006</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>634.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Phone Premium Plus 2007</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>234.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Phone Premium Plus 2008</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>346.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Phone Premium Plus 2009</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>363.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Phone Premium Plus 2010</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>312.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Phone Premium Plus 2011</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>424.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Phone Premium Plus 2000</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>466.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Brand Phone 2003</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>546.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Brand Phone 2004</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>123.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Brand Phone 2005</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>123.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Brand Phone 2006</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>653.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Brand Phone 2007</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>123.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Brand Phone 2008</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>234.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Brand Phone 2009</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>253.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Brand Phone 20010</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>126.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Brand Phone 20011</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>643.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Brand Phone 2000</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>364.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Brand Phone 2001</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>234.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Brand Phone 2002</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>366.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Phony Phone 2016</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>234.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Phony Phone 2015</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>325.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Phony Phone 2014</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>264.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Phony Phone 2013</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>654.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Phony Phone 2012</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>346.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Phony Phone 2011</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>123.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Phony Phone 2010</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>125.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Phony Phone 2009</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>345.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Phony Phone 2008</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>345.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Phony Phone 2019</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>364.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Phony Phone 2018</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>634.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Phony Phone 2017</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>234.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
